--- a/data/trans_orig/IP1003-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1003-Estudios-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{783EC9BA-67D1-43AF-80DF-6188B47C4DDD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B25C4E99-9E39-4F38-A808-03A9C5D12812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{950DC375-AD0D-45AF-A594-56DCC0F3E93D}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00429DD3-1C4D-4F57-9A92-70D1A9C9D81A}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -107,31 +107,31 @@
     <t>1,9%</t>
   </si>
   <si>
-    <t>10,75%</t>
+    <t>11,0%</t>
   </si>
   <si>
     <t>7,02%</t>
   </si>
   <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>12,17%</t>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>12,02%</t>
   </si>
   <si>
     <t>6,05%</t>
   </si>
   <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>10,01%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
   </si>
   <si>
     <t>94,97%</t>
   </si>
   <si>
-    <t>89,25%</t>
+    <t>89,0%</t>
   </si>
   <si>
     <t>98,1%</t>
@@ -140,19 +140,19 @@
     <t>92,98%</t>
   </si>
   <si>
-    <t>87,83%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
+    <t>87,98%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
   </si>
   <si>
     <t>93,95%</t>
   </si>
   <si>
-    <t>89,99%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
   </si>
   <si>
     <t>Secundarios</t>
@@ -161,724 +161,727 @@
     <t>7,38%</t>
   </si>
   <si>
+    <t>5,69%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>7,83%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>94,31%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,17%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,88%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,59%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>8,8%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>96,12%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>96,41%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,54%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,41%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,46%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2012 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>3,54%</t>
+  </si>
+  <si>
+    <t>13,24%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>1,59%</t>
+  </si>
+  <si>
+    <t>9,93%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>86,76%</t>
+  </si>
+  <si>
+    <t>96,46%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>90,07%</t>
+  </si>
+  <si>
+    <t>98,41%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,36%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,4%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
+  </si>
+  <si>
+    <t>96,64%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>95,6%</t>
+  </si>
+  <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>9,28%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,35%</t>
-  </si>
-  <si>
-    <t>7,9%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
   </si>
   <si>
     <t>94,66%</t>
   </si>
   <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,34%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>92,1%</t>
-  </si>
-  <si>
-    <t>94,65%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,79%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,77%</t>
-  </si>
-  <si>
-    <t>9,9%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,46%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>96,21%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>90,1%</t>
-  </si>
-  <si>
-    <t>96,23%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>5,48%</t>
-  </si>
-  <si>
-    <t>8,43%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,52%</t>
-  </si>
-  <si>
-    <t>6,45%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,57%</t>
-  </si>
-  <si>
-    <t>94,52%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,48%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>93,55%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2012 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>10,81%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>10,23%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>86,64%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>89,19%</t>
-  </si>
-  <si>
-    <t>97,78%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>89,77%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
+    <t>90,8%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>92,82%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,48%</t>
+  </si>
+  <si>
+    <t>6,17%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>93,83%</t>
+  </si>
+  <si>
+    <t>96,52%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>15,17%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,32%</t>
+  </si>
+  <si>
+    <t>9,22%</t>
+  </si>
+  <si>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>84,83%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>90,78%</t>
+  </si>
+  <si>
+    <t>97,68%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>7,39%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,52%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>6,61%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>92,61%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>96,48%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,39%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>8,04%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>94,48%</t>
+  </si>
+  <si>
+    <t>98,75%</t>
+  </si>
+  <si>
+    <t>91,96%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>97,65%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>3,3%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>96,7%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>11,46%</t>
+  </si>
+  <si>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>22,92%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>11,02%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>13,97%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>77,08%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>88,98%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>86,03%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
   </si>
   <si>
     <t>4,33%</t>
   </si>
   <si>
-    <t>8,13%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,32%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,87%</t>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
   </si>
   <si>
     <t>95,67%</t>
   </si>
   <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>95,68%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>8,74%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>8,17%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>91,26%</t>
-  </si>
-  <si>
-    <t>97,11%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
-  </si>
-  <si>
-    <t>91,83%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,51%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,92%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>95,49%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>16,16%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>6,29%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>83,84%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>95,97%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,21%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>95,84%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>5,85%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>8,18%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,15%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>97,5%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,9%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>5,99%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>96,1%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,01%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>22,53%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>10,69%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>77,47%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>89,31%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,76%</t>
-  </si>
-  <si>
-    <t>10,31%</t>
-  </si>
-  <si>
-    <t>4,3%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>8,63%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,69%</t>
-  </si>
-  <si>
-    <t>94,24%</t>
-  </si>
-  <si>
-    <t>91,89%</t>
-  </si>
-  <si>
-    <t>95,7%</t>
-  </si>
-  <si>
     <t>93,08%</t>
   </si>
   <si>
-    <t>91,37%</t>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>94,49%</t>
   </si>
   <si>
     <t>8,45%</t>
   </si>
   <si>
-    <t>13,47%</t>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>13,08%</t>
   </si>
   <si>
     <t>5,15%</t>
   </si>
   <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>10,21%</t>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>8,88%</t>
+  </si>
+  <si>
+    <t>4,74%</t>
   </si>
   <si>
     <t>91,55%</t>
   </si>
   <si>
-    <t>86,53%</t>
+    <t>86,92%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
   </si>
   <si>
     <t>94,85%</t>
   </si>
   <si>
-    <t>91,01%</t>
-  </si>
-  <si>
-    <t>97,33%</t>
-  </si>
-  <si>
-    <t>89,79%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
+    <t>91,12%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,26%</t>
   </si>
   <si>
     <t>8,2%</t>
   </si>
   <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>10,32%</t>
+    <t>10,22%</t>
   </si>
   <si>
     <t>5,68%</t>
   </si>
   <si>
-    <t>4,27%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
+    <t>4,34%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
   </si>
   <si>
     <t>7,01%</t>
@@ -887,31 +890,28 @@
     <t>5,94%</t>
   </si>
   <si>
-    <t>8,51%</t>
+    <t>8,35%</t>
   </si>
   <si>
     <t>91,8%</t>
   </si>
   <si>
-    <t>89,68%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
+    <t>89,78%</t>
   </si>
   <si>
     <t>94,32%</t>
   </si>
   <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>95,73%</t>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>95,66%</t>
   </si>
   <si>
     <t>92,99%</t>
   </si>
   <si>
-    <t>91,49%</t>
+    <t>91,65%</t>
   </si>
   <si>
     <t>94,06%</t>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{194152AD-3717-4C84-816A-EA6308C2F856}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E18929-0948-4107-93BE-7F26CA30A2E8}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2097,10 +2097,10 @@
         <v>82</v>
       </c>
       <c r="P16" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2115,13 +2115,13 @@
         <v>672733</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>86</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>957</v>
@@ -2130,13 +2130,13 @@
         <v>640382</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>90</v>
       </c>
       <c r="M17" s="7">
         <v>1968</v>
@@ -2145,13 +2145,13 @@
         <v>1313115</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2207,7 +2207,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -2227,7 +2227,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FF426E9-480C-45BB-A53D-EF8423F8A545}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48407F2-FBE3-48F1-A94F-D553643E70BD}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2244,7 +2244,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2500,13 +2500,13 @@
         <v>6315</v>
       </c>
       <c r="E7" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>98</v>
       </c>
       <c r="H7" s="7">
         <v>6</v>
@@ -2515,13 +2515,13 @@
         <v>4393</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>101</v>
       </c>
       <c r="M7" s="7">
         <v>15</v>
@@ -2530,13 +2530,13 @@
         <v>10708</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2551,13 +2551,13 @@
         <v>77222</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H8" s="7">
         <v>127</v>
@@ -2566,13 +2566,13 @@
         <v>87496</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>110</v>
       </c>
       <c r="M8" s="7">
         <v>235</v>
@@ -2581,13 +2581,13 @@
         <v>164717</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>111</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2655,13 +2655,13 @@
         <v>30193</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>114</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="H10" s="7">
         <v>30</v>
@@ -2670,13 +2670,13 @@
         <v>21591</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>117</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>119</v>
       </c>
       <c r="M10" s="7">
         <v>73</v>
@@ -2685,13 +2685,13 @@
         <v>51784</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>120</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2706,13 +2706,13 @@
         <v>462211</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>123</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>125</v>
       </c>
       <c r="H11" s="7">
         <v>620</v>
@@ -2721,13 +2721,13 @@
         <v>427481</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>126</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>127</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>128</v>
       </c>
       <c r="M11" s="7">
         <v>1282</v>
@@ -2736,13 +2736,13 @@
         <v>889692</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>129</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>130</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2810,13 +2810,13 @@
         <v>9160</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>40</v>
+        <v>130</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H13" s="7">
         <v>10</v>
@@ -2825,13 +2825,13 @@
         <v>7205</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>134</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M13" s="7">
         <v>23</v>
@@ -2840,13 +2840,13 @@
         <v>16365</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2861,7 +2861,7 @@
         <v>162401</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>50</v>
+        <v>138</v>
       </c>
       <c r="F14" s="7" t="s">
         <v>139</v>
@@ -2876,13 +2876,13 @@
         <v>158135</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>141</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M14" s="7">
         <v>454</v>
@@ -2891,13 +2891,13 @@
         <v>320536</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P14" s="7" t="s">
         <v>144</v>
       </c>
-      <c r="P14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>145</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2965,7 +2965,7 @@
         <v>45668</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="F16" s="7" t="s">
         <v>146</v>
@@ -3016,7 +3016,7 @@
         <v>702474</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>154</v>
@@ -3108,7 +3108,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -3128,7 +3128,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9F820A19-A0D5-4E28-8F00-9F6F70A1E7C6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EFA207-084C-4161-9B2B-E4A95391B885}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3425,7 +3425,7 @@
         <v>169</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3440,13 +3440,13 @@
         <v>62862</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="H8" s="7">
         <v>88</v>
@@ -3455,10 +3455,10 @@
         <v>58714</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>16</v>
@@ -3470,13 +3470,13 @@
         <v>121577</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>170</v>
+        <v>177</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3544,13 +3544,13 @@
         <v>27067</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="H10" s="7">
         <v>34</v>
@@ -3559,13 +3559,13 @@
         <v>23343</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="M10" s="7">
         <v>71</v>
@@ -3574,13 +3574,13 @@
         <v>50410</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3595,13 +3595,13 @@
         <v>461668</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="H11" s="7">
         <v>680</v>
@@ -3610,13 +3610,13 @@
         <v>448947</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="M11" s="7">
         <v>1338</v>
@@ -3625,13 +3625,13 @@
         <v>910615</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3699,13 +3699,13 @@
         <v>5781</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -3714,13 +3714,13 @@
         <v>8126</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>198</v>
+        <v>146</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="M13" s="7">
         <v>19</v>
@@ -3729,13 +3729,13 @@
         <v>13907</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>114</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3750,13 +3750,13 @@
         <v>181714</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="H14" s="7">
         <v>247</v>
@@ -3765,13 +3765,13 @@
         <v>164577</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>206</v>
+        <v>155</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="M14" s="7">
         <v>510</v>
@@ -3780,13 +3780,13 @@
         <v>346290</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>123</v>
+        <v>211</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3854,13 +3854,13 @@
         <v>38600</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="H16" s="7">
         <v>46</v>
@@ -3869,13 +3869,13 @@
         <v>32132</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>24</v>
+        <v>217</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="M16" s="7">
         <v>99</v>
@@ -3884,13 +3884,13 @@
         <v>70732</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>217</v>
+        <v>43</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3905,13 +3905,13 @@
         <v>706244</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="H17" s="7">
         <v>1015</v>
@@ -3920,13 +3920,13 @@
         <v>672239</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>34</v>
+        <v>226</v>
       </c>
       <c r="M17" s="7">
         <v>2027</v>
@@ -3935,13 +3935,13 @@
         <v>1378483</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>226</v>
+        <v>53</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3997,7 +3997,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>
@@ -4017,7 +4017,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5BA11929-8D35-4402-9106-E6CB3B674FA1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0638502-D8EA-460E-8088-0DBD0A04092E}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4034,7 +4034,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4290,13 +4290,13 @@
         <v>6733</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="H7" s="7">
         <v>3</v>
@@ -4305,13 +4305,13 @@
         <v>2111</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="M7" s="7">
         <v>11</v>
@@ -4320,13 +4320,13 @@
         <v>8844</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>234</v>
+        <v>201</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4341,13 +4341,13 @@
         <v>52024</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H8" s="7">
         <v>66</v>
@@ -4356,13 +4356,13 @@
         <v>49091</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="M8" s="7">
         <v>141</v>
@@ -4371,7 +4371,7 @@
         <v>101115</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>243</v>
+        <v>208</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>244</v>
@@ -4478,10 +4478,10 @@
         <v>251</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>120</v>
+        <v>252</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4496,13 +4496,13 @@
         <v>452798</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H11" s="7">
         <v>602</v>
@@ -4514,10 +4514,10 @@
         <v>35</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="M11" s="7">
         <v>1207</v>
@@ -4526,13 +4526,13 @@
         <v>874174</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4600,13 +4600,13 @@
         <v>14757</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>216</v>
+        <v>263</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="H13" s="7">
         <v>11</v>
@@ -4615,13 +4615,13 @@
         <v>7750</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
       <c r="M13" s="7">
         <v>29</v>
@@ -4633,10 +4633,10 @@
         <v>251</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>266</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4651,13 +4651,13 @@
         <v>159826</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>224</v>
+        <v>271</v>
       </c>
       <c r="H14" s="7">
         <v>218</v>
@@ -4666,13 +4666,13 @@
         <v>142777</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="M14" s="7">
         <v>438</v>
@@ -4681,13 +4681,13 @@
         <v>302602</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>272</v>
+        <v>107</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4755,13 +4755,13 @@
         <v>59379</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>275</v>
+        <v>58</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="H16" s="7">
         <v>53</v>
@@ -4770,13 +4770,13 @@
         <v>36994</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M16" s="7">
         <v>127</v>
@@ -4785,13 +4785,13 @@
         <v>96373</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4806,13 +4806,13 @@
         <v>664647</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>285</v>
+        <v>67</v>
       </c>
       <c r="H17" s="7">
         <v>887</v>
@@ -4898,7 +4898,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP1003-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/IP1003-Estudios-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B25C4E99-9E39-4F38-A808-03A9C5D12812}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{09A9E9CE-3B04-4259-B8B2-0F766051D27A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{00429DD3-1C4D-4F57-9A92-70D1A9C9D81A}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{919F6A9D-7BC5-4B87-B5BA-5CEF411B3A28}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="289">
   <si>
     <t>Menores según si padecen alergias crónicas en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,853 +68,844 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>-</t>
+    <t>Primarios</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>3,49%</t>
+  </si>
+  <si>
+    <t>12,32%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>2,33%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>6,05%</t>
+  </si>
+  <si>
+    <t>3,55%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>87,68%</t>
+  </si>
+  <si>
+    <t>96,51%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>97,67%</t>
+  </si>
+  <si>
+    <t>93,95%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>Secundarios</t>
+  </si>
+  <si>
+    <t>5,65%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,72%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>5,38%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>94,35%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>90,28%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,42%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>94,62%</t>
+  </si>
+  <si>
+    <t>Universitarios</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>3,71%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>10,72%</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,43%</t>
+  </si>
+  <si>
+    <t>8,86%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>96,29%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>89,28%</t>
+  </si>
+  <si>
+    <t>96,33%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,14%</t>
+  </si>
+  <si>
+    <t>95,57%</t>
+  </si>
+  <si>
+    <t>5,97%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>7,46%</t>
+  </si>
+  <si>
+    <t>6,92%</t>
+  </si>
+  <si>
+    <t>5,44%</t>
+  </si>
+  <si>
+    <t>8,47%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>94,03%</t>
+  </si>
+  <si>
+    <t>92,54%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>93,08%</t>
+  </si>
+  <si>
+    <t>91,53%</t>
+  </si>
+  <si>
+    <t>94,56%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2012 (Tasa respuesta: 99,24%)</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
+  </si>
+  <si>
+    <t>13,23%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>3,79%</t>
+  </si>
+  <si>
+    <t>10,2%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>86,77%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>89,8%</t>
+  </si>
+  <si>
+    <t>96,21%</t>
+  </si>
+  <si>
+    <t>4,81%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,27%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>91,73%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>94,5%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>95,53%</t>
+  </si>
+  <si>
+    <t>4,36%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>3,1%</t>
+  </si>
+  <si>
+    <t>9,27%</t>
+  </si>
+  <si>
+    <t>4,86%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
+  </si>
+  <si>
+    <t>95,64%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>97,8%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>90,73%</t>
+  </si>
+  <si>
+    <t>96,9%</t>
+  </si>
+  <si>
+    <t>95,14%</t>
+  </si>
+  <si>
+    <t>92,79%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>6,11%</t>
+  </si>
+  <si>
+    <t>4,83%</t>
+  </si>
+  <si>
+    <t>5,42%</t>
+  </si>
+  <si>
+    <t>4,51%</t>
+  </si>
+  <si>
+    <t>6,51%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>96,55%</t>
+  </si>
+  <si>
+    <t>93,89%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>94,58%</t>
+  </si>
+  <si>
+    <t>93,49%</t>
+  </si>
+  <si>
+    <t>95,49%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
     <t>0,0%</t>
   </si>
   <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>77,15%</t>
-  </si>
-  <si>
-    <t>—%</t>
-  </si>
-  <si>
-    <t>No</t>
+    <t>5,93%</t>
+  </si>
+  <si>
+    <t>8,38%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>17,2%</t>
+  </si>
+  <si>
+    <t>5,01%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>94,07%</t>
   </si>
   <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>22,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>Primarios</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>1,9%</t>
-  </si>
-  <si>
-    <t>11,0%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>12,02%</t>
-  </si>
-  <si>
-    <t>6,05%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>9,5%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>89,0%</t>
-  </si>
-  <si>
-    <t>98,1%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>87,98%</t>
-  </si>
-  <si>
-    <t>96,45%</t>
-  </si>
-  <si>
-    <t>93,95%</t>
-  </si>
-  <si>
-    <t>90,5%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>Secundarios</t>
-  </si>
-  <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>5,69%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>5,65%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>94,31%</t>
-  </si>
-  <si>
-    <t>94,35%</t>
-  </si>
-  <si>
-    <t>92,17%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>93,42%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>Universitarios</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>3,88%</t>
-  </si>
-  <si>
-    <t>10,27%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>3,59%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,36%</t>
-  </si>
-  <si>
-    <t>8,8%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>89,73%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>96,41%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,2%</t>
-  </si>
-  <si>
-    <t>95,64%</t>
+    <t>91,62%</t>
+  </si>
+  <si>
+    <t>82,8%</t>
+  </si>
+  <si>
+    <t>95,9%</t>
+  </si>
+  <si>
+    <t>94,99%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>4,94%</t>
+  </si>
+  <si>
+    <t>3,46%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,48%</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>4,17%</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>95,06%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,54%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>92,52%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>95,83%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>8,26%</t>
+  </si>
+  <si>
+    <t>3,08%</t>
+  </si>
+  <si>
+    <t>1,5%</t>
+  </si>
+  <si>
+    <t>3,86%</t>
+  </si>
+  <si>
+    <t>2,43%</t>
+  </si>
+  <si>
+    <t>5,95%</t>
+  </si>
+  <si>
+    <t>95,29%</t>
+  </si>
+  <si>
+    <t>91,74%</t>
+  </si>
+  <si>
+    <t>97,53%</t>
+  </si>
+  <si>
+    <t>96,92%</t>
+  </si>
+  <si>
+    <t>98,5%</t>
+  </si>
+  <si>
+    <t>96,14%</t>
+  </si>
+  <si>
+    <t>94,05%</t>
+  </si>
+  <si>
+    <t>97,57%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>6,7%</t>
+  </si>
+  <si>
+    <t>4,88%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>93,92%</t>
+  </si>
+  <si>
+    <t>96,71%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>93,3%</t>
+  </si>
+  <si>
+    <t>96,08%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>94,08%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>Menores según si padecen alergias crónicas en 2023 (Tasa respuesta: 99,69%)</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>10,75%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>4,91%</t>
+  </si>
+  <si>
+    <t>22,21%</t>
+  </si>
+  <si>
+    <t>7,87%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>14,45%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>89,25%</t>
+  </si>
+  <si>
+    <t>98,92%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>77,79%</t>
+  </si>
+  <si>
+    <t>95,09%</t>
+  </si>
+  <si>
+    <t>92,13%</t>
+  </si>
+  <si>
+    <t>85,55%</t>
+  </si>
+  <si>
+    <t>96,06%</t>
+  </si>
+  <si>
+    <t>5,84%</t>
+  </si>
+  <si>
+    <t>4,25%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>5,7%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
   </si>
   <si>
     <t>6,91%</t>
   </si>
   <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>5,97%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>7,54%</t>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>94,16%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>95,75%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>94,3%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>2,65%</t>
+  </si>
+  <si>
+    <t>8,87%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>10,18%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>91,13%</t>
+  </si>
+  <si>
+    <t>97,35%</t>
+  </si>
+  <si>
+    <t>86,98%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>89,82%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>5,53%</t>
+  </si>
+  <si>
+    <t>4,09%</t>
+  </si>
+  <si>
+    <t>7,09%</t>
+  </si>
+  <si>
+    <t>8,24%</t>
   </si>
   <si>
     <t>6,45%</t>
   </si>
   <si>
-    <t>7,51%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>91,41%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>94,03%</t>
-  </si>
-  <si>
-    <t>92,46%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>8,42%</t>
+  </si>
+  <si>
+    <t>94,47%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>95,91%</t>
+  </si>
+  <si>
+    <t>91,76%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
   </si>
   <si>
     <t>93,55%</t>
   </si>
   <si>
-    <t>92,49%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2012 (Tasa respuesta: 99,24%)</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>3,54%</t>
-  </si>
-  <si>
-    <t>13,24%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>1,59%</t>
-  </si>
-  <si>
-    <t>9,93%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>9,86%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>86,76%</t>
-  </si>
-  <si>
-    <t>96,46%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>90,07%</t>
-  </si>
-  <si>
-    <t>98,41%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>90,14%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>4,81%</t>
-  </si>
-  <si>
-    <t>3,36%</t>
-  </si>
-  <si>
-    <t>6,69%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>95,19%</t>
-  </si>
-  <si>
-    <t>93,31%</t>
-  </si>
-  <si>
-    <t>96,64%</t>
-  </si>
-  <si>
-    <t>94,5%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>4,86%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>90,8%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,14%</t>
-  </si>
-  <si>
-    <t>92,82%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>4,71%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>6,17%</t>
-  </si>
-  <si>
-    <t>5,42%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>6,42%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>93,83%</t>
-  </si>
-  <si>
-    <t>96,52%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>93,58%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>8,38%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>15,17%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>5,01%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>9,22%</t>
-  </si>
-  <si>
-    <t>91,62%</t>
-  </si>
-  <si>
-    <t>84,83%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>94,99%</t>
-  </si>
-  <si>
-    <t>90,78%</t>
-  </si>
-  <si>
-    <t>97,68%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>7,39%</t>
-  </si>
-  <si>
-    <t>4,94%</t>
-  </si>
-  <si>
-    <t>3,52%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>6,61%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>92,61%</t>
-  </si>
-  <si>
-    <t>96,06%</t>
-  </si>
-  <si>
-    <t>95,06%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>96,48%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,39%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>3,08%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>3,86%</t>
-  </si>
-  <si>
-    <t>2,35%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>96,92%</t>
-  </si>
-  <si>
-    <t>94,48%</t>
-  </si>
-  <si>
-    <t>98,75%</t>
-  </si>
-  <si>
-    <t>91,96%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>96,14%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>97,65%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>6,7%</t>
-  </si>
-  <si>
-    <t>4,56%</t>
-  </si>
-  <si>
-    <t>3,3%</t>
-  </si>
-  <si>
-    <t>5,92%</t>
-  </si>
-  <si>
-    <t>4,88%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>93,3%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>95,44%</t>
-  </si>
-  <si>
-    <t>94,08%</t>
-  </si>
-  <si>
-    <t>96,7%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>Menores según si padecen alergias crónicas en 2023 (Tasa respuesta: 99,69%)</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>22,92%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>11,02%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>13,97%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>77,08%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>88,98%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>86,03%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>7,72%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>4,33%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>6,92%</t>
-  </si>
-  <si>
-    <t>5,51%</t>
-  </si>
-  <si>
-    <t>8,55%</t>
-  </si>
-  <si>
-    <t>92,28%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,67%</t>
-  </si>
-  <si>
-    <t>93,08%</t>
-  </si>
-  <si>
-    <t>91,45%</t>
-  </si>
-  <si>
-    <t>94,49%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>13,08%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>8,88%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>91,55%</t>
-  </si>
-  <si>
-    <t>86,92%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>91,12%</t>
-  </si>
-  <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,26%</t>
-  </si>
-  <si>
-    <t>8,2%</t>
-  </si>
-  <si>
-    <t>10,22%</t>
-  </si>
-  <si>
-    <t>5,68%</t>
-  </si>
-  <si>
-    <t>4,34%</t>
-  </si>
-  <si>
-    <t>7,29%</t>
-  </si>
-  <si>
-    <t>7,01%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>8,35%</t>
-  </si>
-  <si>
-    <t>91,8%</t>
-  </si>
-  <si>
-    <t>89,78%</t>
-  </si>
-  <si>
-    <t>94,32%</t>
-  </si>
-  <si>
-    <t>92,71%</t>
-  </si>
-  <si>
-    <t>95,66%</t>
-  </si>
-  <si>
-    <t>92,99%</t>
-  </si>
-  <si>
-    <t>91,65%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>91,58%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
   </si>
 </sst>
 </file>
@@ -1326,8 +1317,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20E18929-0948-4107-93BE-7F26CA30A2E8}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9574B054-160A-4322-BE6E-4BEB76CACEA8}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1444,10 +1435,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>6383</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1459,81 +1450,85 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I4" s="7">
+        <v>4367</v>
+      </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>10750</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>126</v>
       </c>
       <c r="D5" s="7">
-        <v>726</v>
+        <v>84484</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>124</v>
+      </c>
+      <c r="I5" s="7">
+        <v>82478</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N5" s="7">
-        <v>726</v>
+        <v>166962</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -1542,151 +1537,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>136</v>
       </c>
       <c r="D6" s="7">
-        <v>726</v>
+        <v>90867</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>130</v>
+      </c>
+      <c r="I6" s="7">
+        <v>86845</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>266</v>
       </c>
       <c r="N6" s="7">
-        <v>726</v>
+        <v>177712</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="D7" s="7">
-        <v>4367</v>
+        <v>23503</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>10</v>
+        <v>54</v>
       </c>
       <c r="I7" s="7">
-        <v>6383</v>
+        <v>35222</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>16</v>
+        <v>89</v>
       </c>
       <c r="N7" s="7">
-        <v>10750</v>
+        <v>58726</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>124</v>
+        <v>593</v>
       </c>
       <c r="D8" s="7">
-        <v>82477</v>
+        <v>392584</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>126</v>
+        <v>665</v>
       </c>
       <c r="I8" s="7">
-        <v>84484</v>
+        <v>441769</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>250</v>
+        <v>1258</v>
       </c>
       <c r="N8" s="7">
-        <v>166962</v>
+        <v>834352</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1695,153 +1692,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>130</v>
+        <v>628</v>
       </c>
       <c r="D9" s="7">
-        <v>86844</v>
+        <v>416087</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>719</v>
       </c>
       <c r="I9" s="7">
-        <v>90867</v>
+        <v>476991</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>266</v>
+        <v>1347</v>
       </c>
       <c r="N9" s="7">
-        <v>177712</v>
+        <v>893078</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>16</v>
+      </c>
+      <c r="D10" s="7">
+        <v>10753</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="H10" s="7">
+        <v>15</v>
+      </c>
+      <c r="I10" s="7">
+        <v>10377</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="D10" s="7">
-        <v>35222</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>40</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="7">
-        <v>35</v>
-      </c>
-      <c r="I10" s="7">
-        <v>23503</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>42</v>
-      </c>
       <c r="K10" s="7" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>89</v>
+        <v>31</v>
       </c>
       <c r="N10" s="7">
-        <v>58726</v>
+        <v>21130</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>665</v>
+        <v>238</v>
       </c>
       <c r="D11" s="7">
-        <v>441769</v>
+        <v>163313</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>593</v>
+        <v>221</v>
       </c>
       <c r="I11" s="7">
-        <v>392584</v>
+        <v>147761</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>1258</v>
+        <v>459</v>
       </c>
       <c r="N11" s="7">
-        <v>834352</v>
+        <v>311075</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1850,153 +1847,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>719</v>
+        <v>254</v>
       </c>
       <c r="D12" s="7">
-        <v>476991</v>
+        <v>174066</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>628</v>
+        <v>236</v>
       </c>
       <c r="I12" s="7">
-        <v>416087</v>
+        <v>158138</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1347</v>
+        <v>490</v>
       </c>
       <c r="N12" s="7">
-        <v>893078</v>
+        <v>332205</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>15</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7">
-        <v>10377</v>
+        <v>40639</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>69</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>70</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>71</v>
       </c>
       <c r="H13" s="7">
-        <v>16</v>
+        <v>75</v>
       </c>
       <c r="I13" s="7">
-        <v>10753</v>
+        <v>49967</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>72</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>73</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>74</v>
       </c>
       <c r="M13" s="7">
-        <v>31</v>
+        <v>136</v>
       </c>
       <c r="N13" s="7">
-        <v>21130</v>
+        <v>90606</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>75</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>76</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>77</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>221</v>
+        <v>957</v>
       </c>
       <c r="D14" s="7">
-        <v>147761</v>
+        <v>640382</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>67</v>
+        <v>78</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>68</v>
+        <v>79</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>69</v>
+        <v>80</v>
       </c>
       <c r="H14" s="7">
-        <v>238</v>
+        <v>1010</v>
       </c>
       <c r="I14" s="7">
-        <v>163313</v>
+        <v>672007</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>72</v>
+        <v>83</v>
       </c>
       <c r="M14" s="7">
-        <v>459</v>
+        <v>1967</v>
       </c>
       <c r="N14" s="7">
-        <v>311075</v>
+        <v>1312389</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>73</v>
+        <v>84</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2005,216 +2002,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>236</v>
+        <v>1018</v>
       </c>
       <c r="D15" s="7">
-        <v>158138</v>
+        <v>681021</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>254</v>
+        <v>1085</v>
       </c>
       <c r="I15" s="7">
-        <v>174066</v>
+        <v>721974</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>490</v>
+        <v>2103</v>
       </c>
       <c r="N15" s="7">
-        <v>332205</v>
+        <v>1402995</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>75</v>
-      </c>
-      <c r="D16" s="7">
-        <v>49967</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>76</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="H16" s="7">
-        <v>61</v>
-      </c>
-      <c r="I16" s="7">
-        <v>40639</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>80</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>81</v>
-      </c>
-      <c r="M16" s="7">
-        <v>136</v>
-      </c>
-      <c r="N16" s="7">
-        <v>90606</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>82</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1011</v>
-      </c>
-      <c r="D17" s="7">
-        <v>672733</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>84</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="H17" s="7">
-        <v>957</v>
-      </c>
-      <c r="I17" s="7">
-        <v>640382</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="A16" t="s">
         <v>87</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>89</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1968</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1313115</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1086</v>
-      </c>
-      <c r="D18" s="7">
-        <v>722700</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1018</v>
-      </c>
-      <c r="I18" s="7">
-        <v>681021</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2104</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1403721</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2227,8 +2068,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D48407F2-FBE3-48F1-A94F-D553643E70BD}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6604FC78-78CD-4BB4-9B8D-04D2B1F544AE}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2244,7 +2085,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>93</v>
+        <v>88</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2345,96 +2186,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D4" s="7">
-        <v>0</v>
+        <v>4393</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>11</v>
+        <v>89</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>12</v>
+        <v>90</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>13</v>
+        <v>53</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="I4" s="7">
+        <v>6315</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>91</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>55</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>92</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>10708</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>93</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>94</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>1</v>
+        <v>127</v>
       </c>
       <c r="D5" s="7">
-        <v>641</v>
+        <v>87496</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>16</v>
+        <v>96</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>17</v>
+        <v>61</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>18</v>
+        <v>97</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>108</v>
+      </c>
+      <c r="I5" s="7">
+        <v>77222</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>99</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>65</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>235</v>
       </c>
       <c r="N5" s="7">
-        <v>641</v>
+        <v>164717</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>100</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>101</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2443,151 +2288,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>641</v>
+        <v>91889</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>117</v>
+      </c>
+      <c r="I6" s="7">
+        <v>83537</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>250</v>
       </c>
       <c r="N6" s="7">
-        <v>641</v>
+        <v>175425</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>9</v>
+        <v>30</v>
       </c>
       <c r="D7" s="7">
-        <v>6315</v>
+        <v>21591</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>94</v>
+        <v>103</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>95</v>
+        <v>104</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="H7" s="7">
-        <v>6</v>
+        <v>43</v>
       </c>
       <c r="I7" s="7">
-        <v>4393</v>
+        <v>30193</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="M7" s="7">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="N7" s="7">
-        <v>10708</v>
+        <v>51784</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>108</v>
+        <v>620</v>
       </c>
       <c r="D8" s="7">
-        <v>77222</v>
+        <v>427481</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="H8" s="7">
-        <v>127</v>
+        <v>662</v>
       </c>
       <c r="I8" s="7">
-        <v>87496</v>
+        <v>462211</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>106</v>
+        <v>115</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>107</v>
+        <v>116</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>108</v>
+        <v>117</v>
       </c>
       <c r="M8" s="7">
-        <v>235</v>
+        <v>1282</v>
       </c>
       <c r="N8" s="7">
-        <v>164717</v>
+        <v>889692</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>109</v>
+        <v>118</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>110</v>
+        <v>119</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2596,153 +2443,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>117</v>
+        <v>650</v>
       </c>
       <c r="D9" s="7">
-        <v>83537</v>
+        <v>449072</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>133</v>
+        <v>705</v>
       </c>
       <c r="I9" s="7">
-        <v>91889</v>
+        <v>492404</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>250</v>
+        <v>1355</v>
       </c>
       <c r="N9" s="7">
-        <v>175425</v>
+        <v>941476</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="D10" s="7">
-        <v>30193</v>
+        <v>7205</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>113</v>
+        <v>122</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>114</v>
+        <v>123</v>
       </c>
       <c r="H10" s="7">
-        <v>30</v>
+        <v>13</v>
       </c>
       <c r="I10" s="7">
-        <v>21591</v>
+        <v>9160</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>115</v>
+        <v>124</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>116</v>
+        <v>125</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>117</v>
+        <v>126</v>
       </c>
       <c r="M10" s="7">
-        <v>73</v>
+        <v>23</v>
       </c>
       <c r="N10" s="7">
-        <v>51784</v>
+        <v>16365</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>118</v>
+        <v>127</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>119</v>
+        <v>128</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>120</v>
+        <v>129</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>662</v>
+        <v>224</v>
       </c>
       <c r="D11" s="7">
-        <v>462211</v>
+        <v>158135</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>121</v>
+        <v>130</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="H11" s="7">
-        <v>620</v>
+        <v>230</v>
       </c>
       <c r="I11" s="7">
-        <v>427481</v>
+        <v>162401</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>126</v>
+        <v>135</v>
       </c>
       <c r="M11" s="7">
-        <v>1282</v>
+        <v>454</v>
       </c>
       <c r="N11" s="7">
-        <v>889692</v>
+        <v>320536</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>127</v>
+        <v>136</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>128</v>
+        <v>137</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>129</v>
+        <v>138</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2751,153 +2598,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>705</v>
+        <v>234</v>
       </c>
       <c r="D12" s="7">
-        <v>492404</v>
+        <v>165340</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>650</v>
+        <v>243</v>
       </c>
       <c r="I12" s="7">
-        <v>449072</v>
+        <v>171561</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1355</v>
+        <v>477</v>
       </c>
       <c r="N12" s="7">
-        <v>941476</v>
+        <v>336901</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>13</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7">
-        <v>9160</v>
+        <v>33189</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>130</v>
+        <v>139</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>132</v>
+        <v>51</v>
       </c>
       <c r="H13" s="7">
-        <v>10</v>
+        <v>65</v>
       </c>
       <c r="I13" s="7">
-        <v>7205</v>
+        <v>45668</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>65</v>
+        <v>141</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>133</v>
+        <v>142</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>134</v>
+        <v>123</v>
       </c>
       <c r="M13" s="7">
-        <v>23</v>
+        <v>111</v>
       </c>
       <c r="N13" s="7">
-        <v>16365</v>
+        <v>78857</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>230</v>
+        <v>971</v>
       </c>
       <c r="D14" s="7">
-        <v>162401</v>
+        <v>673112</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>139</v>
+        <v>60</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H14" s="7">
-        <v>224</v>
+        <v>1000</v>
       </c>
       <c r="I14" s="7">
-        <v>158135</v>
+        <v>701833</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>75</v>
+        <v>148</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>142</v>
+        <v>149</v>
       </c>
       <c r="M14" s="7">
-        <v>454</v>
+        <v>1971</v>
       </c>
       <c r="N14" s="7">
-        <v>320536</v>
+        <v>1374945</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>143</v>
+        <v>150</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>145</v>
+        <v>152</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2906,216 +2753,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>243</v>
+        <v>1017</v>
       </c>
       <c r="D15" s="7">
-        <v>171561</v>
+        <v>706301</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>234</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>165340</v>
+        <v>747501</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>477</v>
+        <v>2082</v>
       </c>
       <c r="N15" s="7">
-        <v>336901</v>
+        <v>1453802</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>65</v>
-      </c>
-      <c r="D16" s="7">
-        <v>45668</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>100</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="H16" s="7">
-        <v>46</v>
-      </c>
-      <c r="I16" s="7">
-        <v>33189</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="M16" s="7">
-        <v>111</v>
-      </c>
-      <c r="N16" s="7">
-        <v>78857</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1001</v>
-      </c>
-      <c r="D17" s="7">
-        <v>702474</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="H17" s="7">
-        <v>971</v>
-      </c>
-      <c r="I17" s="7">
-        <v>673112</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1972</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1375586</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>159</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1066</v>
-      </c>
-      <c r="D18" s="7">
-        <v>748142</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1017</v>
-      </c>
-      <c r="I18" s="7">
-        <v>706301</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2083</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1454443</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3128,8 +2819,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{93EFA207-084C-4161-9B2B-E4A95391B885}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF427A11-8D7E-4D23-A882-6D54B1CD1190}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3145,7 +2836,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3246,88 +2937,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>1</v>
+      </c>
+      <c r="D4" s="7">
+        <v>664</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>154</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>155</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>156</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
-      </c>
-      <c r="I4" s="7"/>
+        <v>8</v>
+      </c>
+      <c r="I4" s="7">
+        <v>5752</v>
+      </c>
       <c r="J4" s="7" t="s">
-        <v>14</v>
+        <v>157</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>14</v>
+        <v>158</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>14</v>
+        <v>159</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
-      </c>
-      <c r="N4" s="7"/>
+        <v>9</v>
+      </c>
+      <c r="N4" s="7">
+        <v>6416</v>
+      </c>
       <c r="O4" s="7" t="s">
-        <v>14</v>
+        <v>160</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>14</v>
+        <v>161</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>14</v>
+        <v>162</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>88</v>
+      </c>
+      <c r="D5" s="7">
+        <v>58714</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>163</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>165</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
-      </c>
-      <c r="I5" s="7"/>
+        <v>91</v>
+      </c>
+      <c r="I5" s="7">
+        <v>62862</v>
+      </c>
       <c r="J5" s="7" t="s">
-        <v>14</v>
+        <v>166</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>14</v>
+        <v>167</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>168</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
-      </c>
-      <c r="N5" s="7"/>
+        <v>179</v>
+      </c>
+      <c r="N5" s="7">
+        <v>121577</v>
+      </c>
       <c r="O5" s="7" t="s">
-        <v>14</v>
+        <v>169</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>14</v>
+        <v>170</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>14</v>
+        <v>171</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3336,147 +3039,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>89</v>
+      </c>
+      <c r="D6" s="7">
+        <v>59378</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>0</v>
-      </c>
-      <c r="I6" s="7"/>
+        <v>99</v>
+      </c>
+      <c r="I6" s="7">
+        <v>68614</v>
+      </c>
       <c r="J6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>0</v>
-      </c>
-      <c r="N6" s="7"/>
+        <v>188</v>
+      </c>
+      <c r="N6" s="7">
+        <v>127993</v>
+      </c>
       <c r="O6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="D7" s="7">
-        <v>5752</v>
+        <v>23343</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>164</v>
+        <v>173</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>165</v>
+        <v>174</v>
       </c>
       <c r="H7" s="7">
-        <v>1</v>
+        <v>37</v>
       </c>
       <c r="I7" s="7">
-        <v>664</v>
+        <v>27067</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>166</v>
+        <v>175</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>11</v>
+        <v>176</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>167</v>
+        <v>177</v>
       </c>
       <c r="M7" s="7">
-        <v>9</v>
+        <v>71</v>
       </c>
       <c r="N7" s="7">
-        <v>6416</v>
+        <v>50410</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>168</v>
+        <v>178</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>170</v>
+        <v>180</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>91</v>
+        <v>680</v>
       </c>
       <c r="D8" s="7">
-        <v>62862</v>
+        <v>448947</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>171</v>
+        <v>181</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>172</v>
+        <v>182</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="H8" s="7">
-        <v>88</v>
+        <v>658</v>
       </c>
       <c r="I8" s="7">
-        <v>58714</v>
+        <v>461668</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>174</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>175</v>
+        <v>185</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>16</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
-        <v>179</v>
+        <v>1338</v>
       </c>
       <c r="N8" s="7">
-        <v>121577</v>
+        <v>910615</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>177</v>
+        <v>188</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>178</v>
+        <v>189</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3485,153 +3194,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>99</v>
+        <v>714</v>
       </c>
       <c r="D9" s="7">
-        <v>68614</v>
+        <v>472290</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>89</v>
+        <v>695</v>
       </c>
       <c r="I9" s="7">
-        <v>59378</v>
+        <v>488735</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>188</v>
+        <v>1409</v>
       </c>
       <c r="N9" s="7">
-        <v>127993</v>
+        <v>961025</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>37</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>27067</v>
+        <v>8126</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>179</v>
+        <v>190</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="H10" s="7">
-        <v>34</v>
+        <v>8</v>
       </c>
       <c r="I10" s="7">
-        <v>23343</v>
+        <v>5781</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>184</v>
+        <v>17</v>
       </c>
       <c r="M10" s="7">
-        <v>71</v>
+        <v>19</v>
       </c>
       <c r="N10" s="7">
-        <v>50410</v>
+        <v>13907</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>185</v>
+        <v>195</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>186</v>
+        <v>196</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>187</v>
+        <v>197</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>658</v>
+        <v>247</v>
       </c>
       <c r="D11" s="7">
-        <v>461668</v>
+        <v>164577</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>188</v>
+        <v>198</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>189</v>
+        <v>199</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="H11" s="7">
-        <v>680</v>
+        <v>263</v>
       </c>
       <c r="I11" s="7">
-        <v>448947</v>
+        <v>181714</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>191</v>
+        <v>201</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>193</v>
+        <v>202</v>
       </c>
       <c r="M11" s="7">
-        <v>1338</v>
+        <v>510</v>
       </c>
       <c r="N11" s="7">
-        <v>910615</v>
+        <v>346290</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>194</v>
+        <v>203</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3640,153 +3349,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>695</v>
+        <v>258</v>
       </c>
       <c r="D12" s="7">
-        <v>488735</v>
+        <v>172703</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>714</v>
+        <v>271</v>
       </c>
       <c r="I12" s="7">
-        <v>472290</v>
+        <v>187495</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1409</v>
+        <v>529</v>
       </c>
       <c r="N12" s="7">
-        <v>961025</v>
+        <v>360197</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="D13" s="7">
-        <v>5781</v>
+        <v>32132</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>197</v>
+        <v>107</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>53</v>
       </c>
       <c r="I13" s="7">
-        <v>8126</v>
+        <v>38600</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>146</v>
+        <v>208</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>200</v>
+        <v>209</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>201</v>
+        <v>210</v>
       </c>
       <c r="M13" s="7">
-        <v>19</v>
+        <v>99</v>
       </c>
       <c r="N13" s="7">
-        <v>13907</v>
+        <v>70732</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>202</v>
+        <v>211</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>204</v>
+        <v>213</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>263</v>
+        <v>1015</v>
       </c>
       <c r="D14" s="7">
-        <v>181714</v>
+        <v>672239</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>205</v>
+        <v>117</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="H14" s="7">
-        <v>247</v>
+        <v>1012</v>
       </c>
       <c r="I14" s="7">
-        <v>164577</v>
+        <v>706244</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>216</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>208</v>
+        <v>217</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>209</v>
+        <v>218</v>
       </c>
       <c r="M14" s="7">
-        <v>510</v>
+        <v>2027</v>
       </c>
       <c r="N14" s="7">
-        <v>346290</v>
+        <v>1378483</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>210</v>
+        <v>219</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>211</v>
+        <v>220</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>212</v>
+        <v>221</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3795,216 +3504,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>271</v>
+        <v>1061</v>
       </c>
       <c r="D15" s="7">
-        <v>187495</v>
+        <v>704371</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>258</v>
+        <v>1065</v>
       </c>
       <c r="I15" s="7">
-        <v>172703</v>
+        <v>744844</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>529</v>
+        <v>2126</v>
       </c>
       <c r="N15" s="7">
-        <v>360197</v>
+        <v>1449215</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>53</v>
-      </c>
-      <c r="D16" s="7">
-        <v>38600</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="H16" s="7">
-        <v>46</v>
-      </c>
-      <c r="I16" s="7">
-        <v>32132</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="M16" s="7">
-        <v>99</v>
-      </c>
-      <c r="N16" s="7">
-        <v>70732</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>1012</v>
-      </c>
-      <c r="D17" s="7">
-        <v>706244</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="H17" s="7">
-        <v>1015</v>
-      </c>
-      <c r="I17" s="7">
-        <v>672239</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>225</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>226</v>
-      </c>
-      <c r="M17" s="7">
-        <v>2027</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1378483</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>227</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>228</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>1065</v>
-      </c>
-      <c r="D18" s="7">
-        <v>744844</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>1061</v>
-      </c>
-      <c r="I18" s="7">
-        <v>704371</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>2126</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1449215</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4017,8 +3570,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0638502-D8EA-460E-8088-0DBD0A04092E}">
-  <dimension ref="A1:Q19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E1020DB-CCA0-4F2D-B85F-FE8ED3722C55}">
+  <dimension ref="A1:Q16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4034,7 +3587,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>229</v>
+        <v>222</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4135,96 +3688,100 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>0</v>
-      </c>
-      <c r="D4" s="7"/>
+        <v>3</v>
+      </c>
+      <c r="D4" s="7">
+        <v>2163</v>
+      </c>
       <c r="E4" s="7" t="s">
-        <v>14</v>
+        <v>223</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>14</v>
+        <v>224</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>14</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>7022</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>227</v>
+      </c>
+      <c r="L4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="M4" s="7">
         <v>11</v>
       </c>
-      <c r="K4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="M4" s="7">
-        <v>0</v>
-      </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>9186</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>13</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
-      </c>
-      <c r="D5" s="7"/>
+        <v>66</v>
+      </c>
+      <c r="D5" s="7">
+        <v>52515</v>
+      </c>
       <c r="E5" s="7" t="s">
-        <v>14</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>14</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>14</v>
+        <v>234</v>
       </c>
       <c r="H5" s="7">
-        <v>1</v>
+        <v>75</v>
       </c>
       <c r="I5" s="7">
-        <v>1171</v>
+        <v>54982</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>16</v>
+        <v>235</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>17</v>
+        <v>236</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>18</v>
+        <v>237</v>
       </c>
       <c r="M5" s="7">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="N5" s="7">
-        <v>1171</v>
+        <v>107496</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>16</v>
+        <v>238</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>17</v>
+        <v>239</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>18</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4233,151 +3790,153 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>0</v>
-      </c>
-      <c r="D6" s="7"/>
+        <v>69</v>
+      </c>
+      <c r="D6" s="7">
+        <v>54678</v>
+      </c>
       <c r="E6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>1</v>
+        <v>83</v>
       </c>
       <c r="I6" s="7">
-        <v>1171</v>
+        <v>62004</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>1</v>
+        <v>152</v>
       </c>
       <c r="N6" s="7">
-        <v>1171</v>
+        <v>116682</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D7" s="7">
-        <v>6733</v>
+        <v>26803</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>231</v>
+        <v>242</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="H7" s="7">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>2111</v>
+        <v>40450</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="M7" s="7">
-        <v>11</v>
+        <v>87</v>
       </c>
       <c r="N7" s="7">
-        <v>8844</v>
+        <v>67252</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>201</v>
+        <v>247</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>236</v>
+        <v>109</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>237</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>75</v>
+        <v>602</v>
       </c>
       <c r="D8" s="7">
-        <v>52024</v>
+        <v>432266</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>239</v>
+        <v>250</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>240</v>
+        <v>251</v>
       </c>
       <c r="H8" s="7">
-        <v>66</v>
+        <v>605</v>
       </c>
       <c r="I8" s="7">
-        <v>49091</v>
+        <v>474375</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>241</v>
+        <v>252</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>253</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>243</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
-        <v>141</v>
+        <v>1207</v>
       </c>
       <c r="N8" s="7">
-        <v>101115</v>
+        <v>906642</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>208</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>244</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>245</v>
+        <v>118</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4386,153 +3945,153 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>83</v>
+        <v>641</v>
       </c>
       <c r="D9" s="7">
-        <v>58757</v>
+        <v>459069</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>69</v>
+        <v>653</v>
       </c>
       <c r="I9" s="7">
-        <v>51202</v>
+        <v>514825</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>152</v>
+        <v>1294</v>
       </c>
       <c r="N9" s="7">
-        <v>109959</v>
+        <v>973894</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="D10" s="7">
-        <v>37889</v>
+        <v>7637</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>246</v>
+        <v>257</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>247</v>
+        <v>258</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>248</v>
+        <v>259</v>
       </c>
       <c r="H10" s="7">
-        <v>39</v>
+        <v>18</v>
       </c>
       <c r="I10" s="7">
-        <v>27133</v>
+        <v>15163</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>26</v>
+        <v>108</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>249</v>
+        <v>208</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>250</v>
+        <v>260</v>
       </c>
       <c r="M10" s="7">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="N10" s="7">
-        <v>65022</v>
+        <v>22800</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>251</v>
+        <v>261</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>252</v>
+        <v>262</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>253</v>
+        <v>263</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>605</v>
+        <v>218</v>
       </c>
       <c r="D11" s="7">
-        <v>452798</v>
+        <v>141083</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>254</v>
+        <v>264</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>256</v>
+        <v>266</v>
       </c>
       <c r="H11" s="7">
-        <v>602</v>
+        <v>220</v>
       </c>
       <c r="I11" s="7">
-        <v>421376</v>
+        <v>168186</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>35</v>
+        <v>116</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>257</v>
+        <v>267</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
       <c r="M11" s="7">
-        <v>1207</v>
+        <v>438</v>
       </c>
       <c r="N11" s="7">
-        <v>874174</v>
+        <v>309269</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>259</v>
+        <v>268</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>260</v>
+        <v>269</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>261</v>
+        <v>270</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4541,153 +4100,153 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>653</v>
+        <v>229</v>
       </c>
       <c r="D12" s="7">
-        <v>490687</v>
+        <v>148720</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>641</v>
+        <v>238</v>
       </c>
       <c r="I12" s="7">
-        <v>448509</v>
+        <v>183349</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1294</v>
+        <v>467</v>
       </c>
       <c r="N12" s="7">
-        <v>939196</v>
+        <v>332069</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>57</v>
+        <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="D13" s="7">
-        <v>14757</v>
+        <v>36603</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>262</v>
+        <v>271</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>263</v>
+        <v>272</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>264</v>
+        <v>273</v>
       </c>
       <c r="H13" s="7">
-        <v>11</v>
+        <v>74</v>
       </c>
       <c r="I13" s="7">
-        <v>7750</v>
+        <v>62635</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>265</v>
+        <v>274</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>266</v>
+        <v>275</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>267</v>
+        <v>276</v>
       </c>
       <c r="M13" s="7">
-        <v>29</v>
+        <v>127</v>
       </c>
       <c r="N13" s="7">
-        <v>22507</v>
+        <v>99238</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>268</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>99</v>
+        <v>279</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>220</v>
+        <v>886</v>
       </c>
       <c r="D14" s="7">
-        <v>159826</v>
+        <v>625864</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>269</v>
+        <v>280</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>270</v>
+        <v>281</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>271</v>
+        <v>282</v>
       </c>
       <c r="H14" s="7">
-        <v>218</v>
+        <v>900</v>
       </c>
       <c r="I14" s="7">
-        <v>142777</v>
+        <v>697543</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>272</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>273</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>274</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
-        <v>438</v>
+        <v>1786</v>
       </c>
       <c r="N14" s="7">
-        <v>302602</v>
+        <v>1323407</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>107</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>275</v>
+        <v>288</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4696,216 +4255,60 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>238</v>
+        <v>939</v>
       </c>
       <c r="D15" s="7">
-        <v>174583</v>
+        <v>662467</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>229</v>
+        <v>974</v>
       </c>
       <c r="I15" s="7">
-        <v>150527</v>
+        <v>760178</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>467</v>
+        <v>1913</v>
       </c>
       <c r="N15" s="7">
-        <v>325109</v>
+        <v>1422645</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B16" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C16" s="7">
-        <v>74</v>
-      </c>
-      <c r="D16" s="7">
-        <v>59379</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>277</v>
-      </c>
-      <c r="H16" s="7">
-        <v>53</v>
-      </c>
-      <c r="I16" s="7">
-        <v>36994</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>279</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="M16" s="7">
-        <v>127</v>
-      </c>
-      <c r="N16" s="7">
-        <v>96373</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>281</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="5" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="7">
-        <v>900</v>
-      </c>
-      <c r="D17" s="7">
-        <v>664647</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="H17" s="7">
-        <v>887</v>
-      </c>
-      <c r="I17" s="7">
-        <v>614415</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>286</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1787</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1279063</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>289</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C18" s="7">
-        <v>974</v>
-      </c>
-      <c r="D18" s="7">
-        <v>724026</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="H18" s="7">
-        <v>940</v>
-      </c>
-      <c r="I18" s="7">
-        <v>651409</v>
-      </c>
-      <c r="J18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="M18" s="7">
-        <v>1914</v>
-      </c>
-      <c r="N18" s="7">
-        <v>1375436</v>
-      </c>
-      <c r="O18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>92</v>
+      <c r="A16" t="s">
+        <v>87</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="8">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
-    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
